--- a/input.xlsx
+++ b/input.xlsx
@@ -79,7 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,41 +115,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,39 +447,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -500,7 +488,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -519,48 +507,48 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>10</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>150</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
-        <v>16</v>
+      <c r="N2" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
